--- a/data/trans_orig/DCD_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/DCD_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A01A3A32-AD25-4AEC-8C5B-559E0B986539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CE6F879-6545-4F1C-A8EC-97A34366E596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CB4BB886-4EF5-4284-A555-4AC64AF7F755}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{01E02BEA-92F5-4104-8EC5-486F4904E706}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
   <si>
     <t>Población con dolor crónico discapacitante (incluye Otro dolor crónico) en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -74,118 +74,118 @@
     <t>20,15%</t>
   </si>
   <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
     <t>13,62%</t>
   </si>
   <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
   </si>
   <si>
     <t>86,38%</t>
   </si>
   <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
     <t>73,48%</t>
   </si>
   <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
   </si>
   <si>
     <t>78,21%</t>
   </si>
   <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -194,55 +194,55 @@
     <t>13,18%</t>
   </si>
   <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
   </si>
   <si>
     <t>27,35%</t>
   </si>
   <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
   </si>
   <si>
     <t>20,33%</t>
   </si>
   <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
   </si>
   <si>
     <t>86,82%</t>
   </si>
   <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
   </si>
   <si>
     <t>72,65%</t>
   </si>
   <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
   </si>
   <si>
     <t>79,67%</t>
   </si>
   <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -251,55 +251,55 @@
     <t>12,57%</t>
   </si>
   <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
   </si>
   <si>
     <t>25,13%</t>
   </si>
   <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
   </si>
   <si>
     <t>19,42%</t>
   </si>
   <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
   </si>
   <si>
     <t>87,43%</t>
   </si>
   <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
   </si>
   <si>
     <t>74,87%</t>
   </si>
   <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
   </si>
   <si>
     <t>80,58%</t>
   </si>
   <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,103 +308,109 @@
     <t>15,36%</t>
   </si>
   <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
   </si>
   <si>
     <t>28,2%</t>
   </si>
   <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
   </si>
   <si>
     <t>22,34%</t>
   </si>
   <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
   </si>
   <si>
     <t>84,64%</t>
   </si>
   <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
   </si>
   <si>
     <t>71,8%</t>
   </si>
   <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
   </si>
   <si>
     <t>77,66%</t>
   </si>
   <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
   </si>
   <si>
     <t>14,41%</t>
   </si>
   <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
   </si>
   <si>
     <t>27,12%</t>
   </si>
   <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
   </si>
   <si>
     <t>21,16%</t>
   </si>
   <si>
-    <t>19,82%</t>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
   </si>
   <si>
     <t>85,59%</t>
   </si>
   <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
   </si>
   <si>
     <t>72,88%</t>
   </si>
   <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
   </si>
   <si>
     <t>78,84%</t>
   </si>
   <si>
-    <t>80,18%</t>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -819,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB6871A-D206-42C8-902E-B7EDC592CE49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB6DF84C-1545-4BB4-A3F6-8415879B390A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1745,7 +1751,7 @@
         <v>2219</v>
       </c>
       <c r="N19" s="7">
-        <v>1527989</v>
+        <v>1527988</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>113</v>
@@ -1754,7 +1760,7 @@
         <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,13 +1775,13 @@
         <v>2897399</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>3723</v>
@@ -1784,13 +1790,13 @@
         <v>2795421</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>6524</v>
@@ -1799,13 +1805,13 @@
         <v>5692820</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1847,7 +1853,7 @@
         <v>8743</v>
       </c>
       <c r="N21" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1861,7 +1867,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/DCD_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/DCD_R-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CE6F879-6545-4F1C-A8EC-97A34366E596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADE565DD-E815-4932-914D-D965692408CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{01E02BEA-92F5-4104-8EC5-486F4904E706}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{961563F6-DE0C-4FAF-BD2A-B5DF99947716}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -131,7 +131,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>16,45%</t>
@@ -188,7 +188,7 @@
     <t>80,42%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>13,18%</t>
@@ -245,7 +245,7 @@
     <t>81,64%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>12,57%</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB6DF84C-1545-4BB4-A3F6-8415879B390A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E19A731D-E0F3-4248-889A-11DFF8DE801D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/DCD_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/DCD_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADE565DD-E815-4932-914D-D965692408CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC42282A-B14B-48A4-8E03-E9FE8957F470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{961563F6-DE0C-4FAF-BD2A-B5DF99947716}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C5E840B0-5149-409A-9585-57596F25145B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
   <si>
     <t>Población con dolor crónico discapacitante (incluye Otro dolor crónico) en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>20,15%</t>
   </si>
   <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
   </si>
   <si>
     <t>31,84%</t>
   </si>
   <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
   </si>
   <si>
     <t>26,72%</t>
   </si>
   <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>79,85%</t>
   </si>
   <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
   </si>
   <si>
     <t>68,16%</t>
   </si>
   <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
   </si>
   <si>
     <t>73,28%</t>
   </si>
   <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>16,45%</t>
   </si>
   <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
   </si>
   <si>
     <t>26,52%</t>
   </si>
   <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
   </si>
   <si>
     <t>21,79%</t>
   </si>
   <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
   </si>
   <si>
     <t>83,55%</t>
   </si>
   <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
   </si>
   <si>
     <t>73,48%</t>
   </si>
   <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
   </si>
   <si>
     <t>78,21%</t>
   </si>
   <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -194,55 +194,55 @@
     <t>13,18%</t>
   </si>
   <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
   </si>
   <si>
     <t>27,35%</t>
   </si>
   <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
   </si>
   <si>
     <t>20,33%</t>
   </si>
   <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
   </si>
   <si>
     <t>86,82%</t>
   </si>
   <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
   </si>
   <si>
     <t>72,65%</t>
   </si>
   <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
   </si>
   <si>
     <t>79,67%</t>
   </si>
   <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -251,55 +251,55 @@
     <t>12,57%</t>
   </si>
   <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
   </si>
   <si>
     <t>25,13%</t>
   </si>
   <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
   </si>
   <si>
     <t>19,42%</t>
   </si>
   <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
   </si>
   <si>
     <t>87,43%</t>
   </si>
   <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
   </si>
   <si>
     <t>74,87%</t>
   </si>
   <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
   </si>
   <si>
     <t>80,58%</t>
   </si>
   <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,109 +308,103 @@
     <t>15,36%</t>
   </si>
   <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
   </si>
   <si>
     <t>28,2%</t>
   </si>
   <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
   </si>
   <si>
     <t>22,34%</t>
   </si>
   <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
   </si>
   <si>
     <t>84,64%</t>
   </si>
   <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
   </si>
   <si>
     <t>71,8%</t>
   </si>
   <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
   </si>
   <si>
     <t>77,66%</t>
   </si>
   <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
   </si>
   <si>
     <t>14,41%</t>
   </si>
   <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
   </si>
   <si>
     <t>27,12%</t>
   </si>
   <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
   </si>
   <si>
     <t>21,16%</t>
   </si>
   <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
+    <t>19,82%</t>
   </si>
   <si>
     <t>85,59%</t>
   </si>
   <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
   </si>
   <si>
     <t>72,88%</t>
   </si>
   <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
   </si>
   <si>
     <t>78,84%</t>
   </si>
   <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
+    <t>80,18%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E19A731D-E0F3-4248-889A-11DFF8DE801D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C470724-C889-433D-B9EC-FEA61C980E62}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1751,7 +1745,7 @@
         <v>2219</v>
       </c>
       <c r="N19" s="7">
-        <v>1527988</v>
+        <v>1527989</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>113</v>
@@ -1760,7 +1754,7 @@
         <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1775,13 +1769,13 @@
         <v>2897399</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>3723</v>
@@ -1790,13 +1784,13 @@
         <v>2795421</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>6524</v>
@@ -1805,13 +1799,13 @@
         <v>5692820</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1853,7 +1847,7 @@
         <v>8743</v>
       </c>
       <c r="N21" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1867,7 +1861,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/DCD_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/DCD_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC42282A-B14B-48A4-8E03-E9FE8957F470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{301D884D-451A-4E4C-AD9F-26FC621D2697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C5E840B0-5149-409A-9585-57596F25145B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2B7F129F-CF7A-443E-BAD0-4801F28B73D4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
   <si>
     <t>Población con dolor crónico discapacitante (incluye Otro dolor crónico) en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -65,346 +65,289 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
   </si>
   <si>
     <t>25,13%</t>
   </si>
   <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
   </si>
   <si>
     <t>74,87%</t>
   </si>
   <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -819,8 +762,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C470724-C889-433D-B9EC-FEA61C980E62}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6F0898-D9F0-4FDB-B71E-56B952A67657}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -937,10 +880,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="D4" s="7">
-        <v>20554</v>
+        <v>105998</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -952,10 +895,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>82</v>
+        <v>393</v>
       </c>
       <c r="I4" s="7">
-        <v>41619</v>
+        <v>192653</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -967,10 +910,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>110</v>
+        <v>539</v>
       </c>
       <c r="N4" s="7">
-        <v>62173</v>
+        <v>298651</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -988,10 +931,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>90</v>
+        <v>584</v>
       </c>
       <c r="D5" s="7">
-        <v>81428</v>
+        <v>529443</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1003,10 +946,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>161</v>
+        <v>848</v>
       </c>
       <c r="I5" s="7">
-        <v>89114</v>
+        <v>532677</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1018,10 +961,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>251</v>
+        <v>1432</v>
       </c>
       <c r="N5" s="7">
-        <v>170542</v>
+        <v>1062121</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1039,10 +982,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1054,10 +997,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1241</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>725330</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1069,10 +1012,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1971</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1360772</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1092,10 +1035,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D7" s="7">
-        <v>90468</v>
+        <v>127906</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1107,10 +1050,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>311</v>
+        <v>460</v>
       </c>
       <c r="I7" s="7">
-        <v>164441</v>
+        <v>263884</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1122,10 +1065,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>429</v>
+        <v>619</v>
       </c>
       <c r="N7" s="7">
-        <v>254909</v>
+        <v>391791</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1143,10 +1086,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>494</v>
+        <v>805</v>
       </c>
       <c r="D8" s="7">
-        <v>459355</v>
+        <v>1064958</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1158,10 +1101,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>687</v>
+        <v>1057</v>
       </c>
       <c r="I8" s="7">
-        <v>455526</v>
+        <v>694767</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1173,10 +1116,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1181</v>
+        <v>1862</v>
       </c>
       <c r="N8" s="7">
-        <v>914881</v>
+        <v>1759725</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1194,10 +1137,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1209,10 +1152,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>998</v>
+        <v>1517</v>
       </c>
       <c r="I9" s="7">
-        <v>619967</v>
+        <v>958651</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1224,10 +1167,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1610</v>
+        <v>2481</v>
       </c>
       <c r="N9" s="7">
-        <v>1169790</v>
+        <v>2151516</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1247,49 +1190,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>159</v>
+        <v>98</v>
       </c>
       <c r="D10" s="7">
-        <v>136926</v>
+        <v>86912</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>322</v>
+      </c>
+      <c r="I10" s="7">
+        <v>201374</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
-        <v>460</v>
-      </c>
-      <c r="I10" s="7">
-        <v>289925</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>420</v>
+      </c>
+      <c r="N10" s="7">
+        <v>288287</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="7">
-        <v>619</v>
-      </c>
-      <c r="N10" s="7">
-        <v>426852</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1298,49 +1241,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>805</v>
+        <v>578</v>
       </c>
       <c r="D11" s="7">
-        <v>902322</v>
+        <v>617768</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>725</v>
+      </c>
+      <c r="I11" s="7">
+        <v>731992</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>1057</v>
-      </c>
-      <c r="I11" s="7">
-        <v>770154</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>1303</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1349759</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="7">
-        <v>1862</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1672475</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1349,10 +1292,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1364,10 +1307,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1517</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1060079</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1379,10 +1322,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2481</v>
+        <v>1723</v>
       </c>
       <c r="N12" s="7">
-        <v>2099327</v>
+        <v>1638046</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1396,55 +1339,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>98</v>
+        <v>172</v>
       </c>
       <c r="D13" s="7">
-        <v>91588</v>
+        <v>141763</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>469</v>
+      </c>
+      <c r="I13" s="7">
+        <v>291634</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>322</v>
-      </c>
-      <c r="I13" s="7">
-        <v>219735</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>641</v>
+      </c>
+      <c r="N13" s="7">
+        <v>433397</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="7">
-        <v>420</v>
-      </c>
-      <c r="N13" s="7">
-        <v>311324</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1453,49 +1396,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>578</v>
+        <v>834</v>
       </c>
       <c r="D14" s="7">
-        <v>637184</v>
+        <v>785068</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>1093</v>
+      </c>
+      <c r="I14" s="7">
+        <v>803298</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="7">
-        <v>725</v>
-      </c>
-      <c r="I14" s="7">
-        <v>654636</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>1927</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1588366</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="7">
-        <v>1303</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1291818</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1504,10 +1447,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1519,10 +1462,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1562</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1094932</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1534,10 +1477,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1723</v>
+        <v>2568</v>
       </c>
       <c r="N15" s="7">
-        <v>1603142</v>
+        <v>2021763</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1551,55 +1494,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>172</v>
+        <v>575</v>
       </c>
       <c r="D16" s="7">
-        <v>148292</v>
+        <v>462580</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1644</v>
+      </c>
+      <c r="I16" s="7">
+        <v>949546</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>469</v>
-      </c>
-      <c r="I16" s="7">
-        <v>324440</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>2219</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1412125</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="M16" s="7">
-        <v>641</v>
-      </c>
-      <c r="N16" s="7">
-        <v>472732</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,49 +1551,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>834</v>
+        <v>2801</v>
       </c>
       <c r="D17" s="7">
-        <v>817111</v>
+        <v>2997237</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="7">
+        <v>3723</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2762734</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>1093</v>
-      </c>
-      <c r="I17" s="7">
-        <v>825992</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>6524</v>
+      </c>
+      <c r="N17" s="7">
+        <v>5759972</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1927</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1643103</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,10 +1602,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3376</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3459817</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1674,10 +1617,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1562</v>
+        <v>5367</v>
       </c>
       <c r="I18" s="7">
-        <v>1150432</v>
+        <v>3712280</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1689,10 +1632,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2568</v>
+        <v>8743</v>
       </c>
       <c r="N18" s="7">
-        <v>2115835</v>
+        <v>7172097</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1705,171 +1648,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>575</v>
-      </c>
-      <c r="D19" s="7">
-        <v>487829</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1644</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1040160</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2219</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1527989</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2801</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2897399</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3723</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2795421</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6524</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5692820</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3376</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5367</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3835581</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8743</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7220809</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
